--- a/src/main/webapp/template/template_lot_basis.xlsx
+++ b/src/main/webapp/template/template_lot_basis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="example" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -90,8 +90,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,7 +252,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -287,7 +286,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,111 +461,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -576,114 +574,114 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B1" sqref="B1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="W1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="V1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>14</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>15</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -781,7 +779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -879,7 +877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -977,7 +975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1173,7 +1171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -1271,7 +1269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1467,7 +1465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1571,12 +1569,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
